--- a/resultBook.xlsx
+++ b/resultBook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,323 +436,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Error: "İ have been good thanks."
-Feedback: The article used here is not necessary for this sentence structure.
-Error: "Which country do you want to study abroad?"
-Feedback: The preposition should be placed differently in this question structure. 
-Error: "Which website i can download my exchange program brochure?"
-Feedback: The preposition is not correctly placed in this question sentence. 
-Error: "Which session are you going to attend?"
-Feedback: The preposition should be adjusted in this question structure. 
-Error: "İt sounds nice."
-Feedback: The pronoun is not capitalized correctly in this sentence. 
-Error: "The end."
-Feedback: A period should not be used after "The end" in the script. 
-Keep up the good work and keep practicing!</t>
+          <t>Yusuf: It was great chatting with you, Omar. Let's plan our English practice session for next week. See you then!</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Error: Who did you recieve your materials from  
-Feedback: The error involves the use of the incorrect preposition after the verb "receive." Think about which preposition is suitable here.  
-Error: Can we meet next week for talking practice  
-Feedback: There is an article missing before "talking practice." Think about which article should be used here.</t>
+          <t>It was great discussing our plans for the ERASMUS program and studying together. If you have any more questions or need help in the future, feel free to reach out. Good luck with your English studies and the application process!</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Review of Errors:
-1. In which area would you like to improve your scores?  
-Feedback: When discussing general preferences or categories, consider the correct use of articles to provide clarity in English.
-Feel free to practice more, and don't hesitate to ask if you have any questions!</t>
+          <t>It was nice chatting with you, Omar! If you have any more questions or need help with English, feel free to reach out. Have a great day!</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Error: "In which areas you want to improve your scores?"
-Feedback: The error is related to the usage of English articles. Think about whether an article should be used or not before the noun "areas."</t>
+          <t>Thank you for the interaction! If you have any more questions or need help in the future, feel free to reach out. Have a great day! Goodbye!</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Error: "Which website can I download your exchange program’s brouche"
-Feedback: The preposition used in this context is not needed. Consider the purpose of the verb "download" and the noun "brochure".
-Error: "Can you send me the link of exchange program’s website?"
-Feedback: The article "the" is missing before "exchange program’s website". Think about the specific website you are referring to in this context.
-Error: "Who do we submit these?"
-Feedback: The preposition used in this question is not necessary. Reflect on the structure of the sentence in relation to the verb "submit".</t>
+          <t>That's a wrap! If you have any more questions or need help in the future, feel free to reach out. Have a wonderful day!</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Error: "From which website did you watch the video lessons?"  
-Feedback: The error is related to a stranded preposition in a question. Think about the placement of prepositions in questions.
-Error: "With who did you study English with?"  
-Feedback: The error is related to the usage of English articles. Pay attention to how articles are used before nouns.</t>
+          <t>Great job, and well done! If you have any more questions or need further practice, feel free to ask. Good luck with your English studies, and have a wonderful day!</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Error: "Who do you study English with?"
-Feedback: The error is related to English article usage. Think about when we use or don't use articles before nouns. 
-Error: "Where did you receive the materials for the exam to study?"
-Feedback: This error involves stranded prepositions in questions. Consider the position of prepositions in questions and their connection to the rest of the sentence. 
-Error: "Which websites do you watch video lessons?"
-Feedback: The error is related to English article usage. Remember when we use or omit articles before plural countable nouns.</t>
+          <t>It was great chatting with you, Omar! If you have any more questions about the ERASMUS program or need help with English, feel free to reach out. See you soon!</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Error: "which exchange program you want to apply to"  
-Feedback: The error is related to a question with a stranded preposition.
-Error: "which country do you want to study abroad"  
-Feedback: The error involves English article usage.
-Error: "which website i download exchange program brochure"  
-Feedback: The error is related to English article usage.
-Error: "which season do you want to go"  
-Feedback: The error involves English article usage.</t>
+          <t>Great job! If you have any more questions or need assistance in the future, feel free to reach out. Have a wonderful day!</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Error: "Can Yusuf and I meet next week to practice some English speaking"  
-Feedback: There is an error with the use of an article in this sentence. Think about the correct article to use before "English speaking." 
-Error: "Whom did you receive your preparation stuffs from"  
-Feedback: The term "preparation stuffs" includes an error with an article. Consider how the noun "stuff" should be used with articles.</t>
+          <t>Great job! If you have any more questions or need further practice, feel free to ask. Good luck with your English studies, and have a wonderful day!</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Error: "What kind of accomodation donyou considet?"
-Feedback: There is an article-related error in this sentence. Pay attention to the use of articles before nouns.
-Error: "Can you send me link of the website that has the accomodation informations?"
-Feedback: In this sentence, there is a stranded preposition. Make sure prepositions are correctly positioned in your sentences.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Errors to address:
-1. "Does you taken an English exam recently?" - The correct form should be "Have you taken an English exam recently?"
-2. "Which website does you watch video lessons" - It should be "Which website do you watch video lessons?"
-3. "Which area does you want to increase your score" - The correct form is "Which area do you want to increase your score?"
-4. "Who are yolu studying with" - It should be "Who are you studying with?"
-5. "Who did you to recieve the exam preparation materials?" - The correct form is "Who did you receive the exam preparation materials from?"
-Remember to pay attention to the correct word order in questions and the usage of the verb "do" in questions. Keep up the good work!</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Error: "Did you take any english exam lately?"  
-Feedback: The error is related to English article usage. Think about which contexts require the use of articles before nouns.  
-Error: "Can i ask who do you study english with?"  
-Feedback: The error involves the structure of the question and the use of articles. Consider the correct form for questions and where articles are needed in English sentences.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Error: "Did you Heard about exchange programs"  
-Feedback: The error is related to English article usage. Think about whether the correct article was used in front of the noun "Heard."
-Error: "To which country bro"  
-Feedback: The error is related to the word order in the sentence. Consider the placement of "bro" in relation to the rest of the sentence.
-Error: "Welll, when this program will start?"  
-Feedback: The error is related to the tense used in the question. Think about the correct tense to use when asking about future events.
-Error: "Thankkkss. What kind of a accomodation do you consider to have"  
-Feedback: The error is related to English article usage. Reflect on whether the correct article was used in the phrase "kind of a accommodation."
-Error: "Can you send me the website link which has accomodation informations"  
-Feedback: The error is related to English article usage and pluralizing a noun. Pay attention to the correct form of the word "accommodation" in this context and the definite article before "website link."
-Error: "Why not now"  
-Feedback: The error is related to the structure of the sentence. Consider a more detailed response that adds to the conversation organically.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Error: How much information form will be?  
-Feedback: The word "form" should come after "much" to make the sentence grammatically correct. Think about the correct use of articles in English.  
-Error: Who do you study English with?  
-Feedback: Think about the correct use of articles when asking about companions or partners in English.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Error: "Which websites have you used to watch video lessons"  
-Feedback: The error is related to the use of a preposition in the sentence structure.
-Error: "Who did you receive from the exam materials"  
-Feedback: The error involves the use of a preposition with the verb "receive." 
-Error: "Would you want to meet next week for practice speaking"  
-Feedback: The error is related to the use of the definite article in the sentence.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Error: "Can we meet next week if you have enough time because l want to practice speaking English?"  
-Feedback: The word "to" is missing before the verb "practice."  
-Error: "from who did you receive your exam preparation materials?"  
-Feedback: The correct question structure should have the preposition "from" followed by the pronoun representing a person.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Feedback:
-1. Error: How much hour The Info session will be  
-   - The error involves the incorrect use of the article with "hour."
-2. Error: Who is the person I can write to ask my question  
-   - The error includes a stranded preposition in the question.
-3. Error: Yes. Dıd you use any source.  
-   - The error is related to using the wrong form of the past tense verb "did."
-4. Error: Which website dıd you watch to improve your english  
-   - The mistake lies in the use of the wrong article before the noun "website."
-5. Error: Which Area do you want to improve your scores  
-   - The error pertains to a stranded preposition in a question.
-6. Error: Who is the person you recieved the study materials from?  
-   - The error involves the use of the article "the" before the noun "person."
-Feel free to review these points to enhance your English language skills. If you have any questions or need further clarification, just let me know!</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Error: "Who did you study english with?"  
-Feedback: The error in this sentence relates to the incorrect capitalization of the word "english."</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Error: "what areas do you want to improve your scores"  
-Feedback: The error is related to the use of a preposition in the sentence structure.
-Error: "who do you study English with"  
-Feedback: The error involves the use of an article in the sentence.
-Error: "where do you recieve your materials"  
-Feedback: The error is related to the use of a preposition in the sentence structure.</t>
+          <t>It was great chatting with you, Omar! If you have any more questions about the ERASMUS program or need help with anything else, feel free to reach out. Have a fantastic day!</t>
         </is>
       </c>
     </row>
